--- a/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/AHLE scenario parameters CATTLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Desktop/Meta model/GBADs_cause_frequency/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Disease specific attribution\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED982C-771E-E34F-B165-77CCB4D25BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2791031-3058-47AB-B871-2B69F9573BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-3300" yWindow="11890" windowWidth="25820" windowHeight="15500" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1130,9 +1130,6 @@
     <t>runif(10000, (57/12), (57/12))</t>
   </si>
   <si>
-    <t>cattle_trial_past_mortality_zero</t>
-  </si>
-  <si>
     <t>Health_exp_prev</t>
   </si>
   <si>
@@ -1244,123 +1241,9 @@
     <t>rpert(10000, 0.8,  1.5, 1.15)</t>
   </si>
   <si>
-    <t>cattle_trial_periurban_dairy_mortality_zero</t>
-  </si>
-  <si>
     <t># for now ideal scenarios are just made up</t>
   </si>
   <si>
-    <t>cattle_trial_CLM_all_mortality_zero</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_mortality_zero_N</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_mortality_zero_J</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_mortality_zero_AF</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_mortality_zero_AM</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_mortality_zero_O</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_ideal_NF</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_ideal_NM</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_ideal_JF</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_ideal_JM</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_ideal_AF</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_ideal_AM</t>
-  </si>
-  <si>
-    <t>cattle_trial_CLM_ideal_O</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_mortality_zero_N</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_mortality_zero_J</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_mortality_zero_AF</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_mortality_zero_AM</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_mortality_zero_O</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_ideal_NF</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_ideal_NM</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_ideal_JF</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_ideal_JM</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_ideal_AF</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_ideal_AM</t>
-  </si>
-  <si>
-    <t>cattle_trial_past_ideal_O</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_mortality_zero_N</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_mortality_zero_J</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_mortality_zero_AF</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_mortality_zero_AM</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_mortality_zero_O</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_ideal_NF</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_ideal_NM</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_ideal_JF</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_ideal_JM</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_ideal_AF</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_ideal_AM</t>
-  </si>
-  <si>
-    <t>cattle_trial_periurban_dairy_ideal_O</t>
-  </si>
-  <si>
     <t>0.025/12</t>
   </si>
   <si>
@@ -1557,6 +1440,123 @@
   </si>
   <si>
     <t>CLM_C_Ideal</t>
+  </si>
+  <si>
+    <t>CLM_C_mortality_zero_N</t>
+  </si>
+  <si>
+    <t>CLM_C_mortality_zero_J</t>
+  </si>
+  <si>
+    <t>CLM_C_mortality_zero_AF</t>
+  </si>
+  <si>
+    <t>CLM_C_mortality_zero_AM</t>
+  </si>
+  <si>
+    <t>CLM_C_mortality_zero_O</t>
+  </si>
+  <si>
+    <t>CLM_C_ideal_NF</t>
+  </si>
+  <si>
+    <t>CLM_C_ideal_NM</t>
+  </si>
+  <si>
+    <t>CLM_C_ideal_JF</t>
+  </si>
+  <si>
+    <t>CLM_C_ideal_JM</t>
+  </si>
+  <si>
+    <t>CLM_C_ideal_AF</t>
+  </si>
+  <si>
+    <t>CLM_C_ideal_AM</t>
+  </si>
+  <si>
+    <t>CLM_C_ideal_O</t>
+  </si>
+  <si>
+    <t>Past_C_mortality_zero</t>
+  </si>
+  <si>
+    <t>Past_C_mortality_zero_N</t>
+  </si>
+  <si>
+    <t>Past_C_mortality_zero_J</t>
+  </si>
+  <si>
+    <t>Past_C_mortality_zero_AF</t>
+  </si>
+  <si>
+    <t>Past_C_mortality_zero_AM</t>
+  </si>
+  <si>
+    <t>Past_C_mortality_zero_O</t>
+  </si>
+  <si>
+    <t>Past_C_ideal_NF</t>
+  </si>
+  <si>
+    <t>Past_C_ideal_NM</t>
+  </si>
+  <si>
+    <t>Past_C_ideal_JF</t>
+  </si>
+  <si>
+    <t>Past_C_ideal_JM</t>
+  </si>
+  <si>
+    <t>Past_C_ideal_AF</t>
+  </si>
+  <si>
+    <t>Past_C_ideal_AM</t>
+  </si>
+  <si>
+    <t>Past_C_ideal_O</t>
+  </si>
+  <si>
+    <t>PUD_C_mortality_zero</t>
+  </si>
+  <si>
+    <t>PUD_C_mortality_zero_N</t>
+  </si>
+  <si>
+    <t>PUD_C_mortality_zero_J</t>
+  </si>
+  <si>
+    <t>PUD_C_mortality_zero_AF</t>
+  </si>
+  <si>
+    <t>PUD_C_mortality_zero_AM</t>
+  </si>
+  <si>
+    <t>PUD_C_mortality_zero_O</t>
+  </si>
+  <si>
+    <t>PUD_C_ideal_NF</t>
+  </si>
+  <si>
+    <t>PUD_C_ideal_NM</t>
+  </si>
+  <si>
+    <t>PUD_C_ideal_JF</t>
+  </si>
+  <si>
+    <t>PUD_C_ideal_JM</t>
+  </si>
+  <si>
+    <t>PUD_C_ideal_AF</t>
+  </si>
+  <si>
+    <t>PUD_C_ideal_AM</t>
+  </si>
+  <si>
+    <t>PUD_C_ideal_O</t>
+  </si>
+  <si>
+    <t>CLM_C_mortality_zero</t>
   </si>
 </sst>
 </file>
@@ -2142,65 +2142,65 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="19" style="31" customWidth="1"/>
     <col min="10" max="10" width="17" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="31" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="31" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="31" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="31" customWidth="1"/>
     <col min="17" max="17" width="21" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="15" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="15" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" style="15" customWidth="1"/>
-    <col min="21" max="31" width="19.33203125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" style="15" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="15" customWidth="1"/>
+    <col min="21" max="31" width="19.28515625" style="15" customWidth="1"/>
     <col min="32" max="32" width="19" style="15" customWidth="1"/>
     <col min="33" max="33" width="27" style="19" customWidth="1"/>
-    <col min="34" max="34" width="23.5" style="19" customWidth="1"/>
-    <col min="35" max="35" width="29.83203125" style="19" customWidth="1"/>
-    <col min="36" max="36" width="20.1640625" style="19" customWidth="1"/>
-    <col min="37" max="37" width="18.83203125" style="19" customWidth="1"/>
-    <col min="38" max="38" width="18.1640625" style="19" customWidth="1"/>
-    <col min="39" max="39" width="20.33203125" style="19" customWidth="1"/>
-    <col min="40" max="40" width="17.83203125" style="19" customWidth="1"/>
+    <col min="34" max="34" width="23.42578125" style="19" customWidth="1"/>
+    <col min="35" max="35" width="29.85546875" style="19" customWidth="1"/>
+    <col min="36" max="36" width="20.140625" style="19" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" style="19" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" style="19" customWidth="1"/>
+    <col min="39" max="39" width="20.28515625" style="19" customWidth="1"/>
+    <col min="40" max="40" width="17.85546875" style="19" customWidth="1"/>
     <col min="41" max="47" width="27" style="19" customWidth="1"/>
     <col min="48" max="48" width="22" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="55" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="21" customWidth="1"/>
-    <col min="59" max="59" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="46.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="20" customWidth="1"/>
-    <col min="61" max="61" width="21.6640625" customWidth="1"/>
-    <col min="62" max="62" width="22.5" customWidth="1"/>
-    <col min="63" max="63" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.7109375" customWidth="1"/>
+    <col min="62" max="62" width="22.42578125" customWidth="1"/>
+    <col min="63" max="63" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="13" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="28" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="42.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="42.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>72</v>
       </c>
@@ -2208,139 +2208,139 @@
         <v>128</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF1" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="R1" s="35" t="s">
+      <c r="AR1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="S1" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="35" t="s">
+      <c r="AS1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="U1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y1" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA1" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB1" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD1" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE1" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF1" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
@@ -2363,9 +2363,9 @@
       <c r="CB1" s="3"/>
       <c r="CC1" s="3"/>
     </row>
-    <row r="2" spans="1:81" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="40"/>
@@ -2433,7 +2433,7 @@
       <c r="CB2" s="43"/>
       <c r="CC2" s="43"/>
     </row>
-    <row r="3" spans="1:81" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="BC4" s="5"/>
       <c r="BQ4"/>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="CB5" s="7"/>
       <c r="CC5" s="7"/>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>125</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="CB6" s="7"/>
       <c r="CC6" s="7"/>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>78</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="BC7" s="5"/>
       <c r="BQ7"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>79</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="BC8" s="5"/>
       <c r="BQ8"/>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>80</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="BC9" s="5"/>
       <c r="BQ9"/>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>81</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="BC10" s="5"/>
       <c r="BQ10"/>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>136</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="BC11" s="5"/>
       <c r="BQ11"/>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="BC12" s="5"/>
       <c r="BQ12"/>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>137</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>138</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="CB14" s="4"/>
       <c r="CC14" s="4"/>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -4180,7 +4180,7 @@
       <c r="BC15" s="5"/>
       <c r="BQ15"/>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4239,54 +4239,54 @@
       <c r="BC16" s="5"/>
       <c r="BQ16"/>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O17" s="52" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R17" s="15">
         <v>0.69</v>
@@ -4401,7 +4401,7 @@
       <c r="BP17" s="5"/>
       <c r="BQ17"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>83</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>151</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>151</v>
@@ -4442,7 +4442,7 @@
         <v>151</v>
       </c>
       <c r="O18" s="52" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="P18" s="31" t="s">
         <v>151</v>
@@ -4457,7 +4457,7 @@
         <v>151</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>151</v>
@@ -4487,7 +4487,7 @@
         <v>151</v>
       </c>
       <c r="AD18" s="45" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="AE18" s="15" t="s">
         <v>151</v>
@@ -4502,7 +4502,7 @@
         <v>151</v>
       </c>
       <c r="AI18" s="47" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="AJ18" s="19" t="s">
         <v>151</v>
@@ -4532,7 +4532,7 @@
         <v>151</v>
       </c>
       <c r="AS18" s="47" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="AT18" s="19" t="s">
         <v>151</v>
@@ -4550,7 +4550,7 @@
       <c r="BC18" s="5"/>
       <c r="BQ18"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -4607,7 +4607,7 @@
       <c r="BC19" s="5"/>
       <c r="BQ19"/>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -4666,12 +4666,12 @@
       <c r="BC20" s="5"/>
       <c r="BQ20"/>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="31">
         <v>1</v>
@@ -4831,7 +4831,7 @@
       <c r="BP21" s="5"/>
       <c r="BQ21"/>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>126</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>210</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="F22" s="31">
         <v>210</v>
@@ -4875,7 +4875,7 @@
         <v>210</v>
       </c>
       <c r="O22" s="52" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="P22" s="31">
         <v>210</v>
@@ -4890,7 +4890,7 @@
         <v>210</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="U22" s="15">
         <v>210</v>
@@ -4920,7 +4920,7 @@
         <v>210</v>
       </c>
       <c r="AD22" s="45" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="AE22" s="15">
         <v>210</v>
@@ -4929,49 +4929,49 @@
         <v>210</v>
       </c>
       <c r="AG22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AH22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AI22" s="47" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="AJ22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AK22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AL22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AM22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AN22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AO22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AP22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AQ22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AR22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AS22" s="47" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="AT22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AU22" s="19" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
@@ -4996,54 +4996,54 @@
       <c r="BP22" s="5"/>
       <c r="BQ22"/>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="R23" s="15">
         <v>1.79</v>
@@ -5052,7 +5052,7 @@
         <v>1.79</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="U23" s="15">
         <v>1.79</v>
@@ -5082,7 +5082,7 @@
         <v>1.79</v>
       </c>
       <c r="AD23" s="45" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="AE23" s="15">
         <v>1.79</v>
@@ -5091,49 +5091,49 @@
         <v>1.79</v>
       </c>
       <c r="AG23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AH23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AI23" s="47" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="AJ23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AK23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AL23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AM23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AN23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AO23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AP23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AQ23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AR23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AS23" s="47" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="AT23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AU23" s="19" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
@@ -5158,7 +5158,7 @@
       <c r="BP23" s="5"/>
       <c r="BQ23"/>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>86</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="BP24" s="5"/>
       <c r="BQ24"/>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -5390,7 +5390,7 @@
       <c r="BP25" s="5"/>
       <c r="BQ25"/>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -5462,57 +5462,57 @@
       <c r="BP26" s="5"/>
       <c r="BQ26"/>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R27" s="15">
         <v>0</v>
@@ -5627,7 +5627,7 @@
       <c r="BP27" s="5"/>
       <c r="BQ27"/>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>141</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="BP28" s="5"/>
       <c r="BQ28"/>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>142</v>
       </c>
@@ -5968,7 +5968,7 @@
       <c r="BP29" s="5"/>
       <c r="BQ29"/>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -6025,7 +6025,7 @@
       <c r="BC30" s="5"/>
       <c r="BQ30"/>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -6084,7 +6084,7 @@
       <c r="BC31" s="5"/>
       <c r="BQ31"/>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="BC32" s="5"/>
       <c r="BQ32"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -6202,9 +6202,9 @@
       <c r="BC33" s="5"/>
       <c r="BQ33"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="31">
         <v>0</v>
@@ -6297,49 +6297,49 @@
         <v>0</v>
       </c>
       <c r="AG34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AH34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AI34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AJ34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AK34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AL34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AM34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AN34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AO34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AP34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AQ34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AR34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AS34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AT34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AU34" s="19" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
@@ -6351,9 +6351,9 @@
       <c r="BC34" s="5"/>
       <c r="BQ34"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="31">
         <v>0</v>
@@ -6446,49 +6446,49 @@
         <v>0</v>
       </c>
       <c r="AG35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AH35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AI35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AJ35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AK35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AL35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AM35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AN35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AO35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AP35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AQ35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AR35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AS35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AT35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AU35" s="19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
@@ -6500,144 +6500,144 @@
       <c r="BC35" s="5"/>
       <c r="BQ35"/>
     </row>
-    <row r="36" spans="1:69" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="U36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="W36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="Y36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="AA36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="AB36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="AC36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="AE36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="AF36" s="15" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="AG36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AH36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AI36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AJ36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AK36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AL36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AM36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AN36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AP36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AQ36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AR36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AS36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AT36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AU36" s="19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
@@ -6649,9 +6649,9 @@
       <c r="BC36" s="5"/>
       <c r="BQ36"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="33">
         <v>0</v>
@@ -6699,49 +6699,49 @@
         <v>0</v>
       </c>
       <c r="R37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="T37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="U37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="W37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="X37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="Y37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="Z37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="AA37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="AB37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="AC37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="AD37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="AE37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="AG37" s="19">
         <v>0</v>
@@ -6798,147 +6798,147 @@
       <c r="BC37" s="5"/>
       <c r="BQ37"/>
     </row>
-    <row r="38" spans="1:69" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="V38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="Y38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="Z38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="AA38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="AF38" s="17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="AG38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AH38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AI38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AJ38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AK38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AL38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AM38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AN38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AO38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AP38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AQ38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AR38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AS38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AT38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AU38" s="22" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
@@ -6950,147 +6950,147 @@
       <c r="BC38" s="5"/>
       <c r="BQ38"/>
     </row>
-    <row r="39" spans="1:69" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="V39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="W39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="X39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="Y39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="Z39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="AA39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="AB39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="AC39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="AF39" s="17" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="AG39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AH39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AI39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AJ39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AK39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AL39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AM39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AN39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AO39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AP39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AQ39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AR39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AS39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AT39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AU39" s="22" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
@@ -7102,54 +7102,54 @@
       <c r="BC39" s="5"/>
       <c r="BQ39"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q40" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R40" s="15">
         <v>0</v>
@@ -7197,49 +7197,49 @@
         <v>0</v>
       </c>
       <c r="AG40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AH40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AI40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AJ40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AK40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AL40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AM40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AN40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AO40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AP40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AQ40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AR40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AS40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AT40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AU40" s="19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AV40" s="4"/>
       <c r="AW40" s="4"/>
@@ -7251,7 +7251,7 @@
       <c r="BC40" s="5"/>
       <c r="BQ40"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -7308,7 +7308,7 @@
       <c r="BC41" s="5"/>
       <c r="BQ41"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -7367,7 +7367,7 @@
       <c r="BC42" s="5"/>
       <c r="BQ42"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>87</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D43" s="48">
         <v>0</v>
@@ -7387,16 +7387,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K43" s="48">
         <v>0</v>
@@ -7405,22 +7405,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q43" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="S43" s="50">
         <v>0</v>
@@ -7432,16 +7432,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="W43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="X43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="Y43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="Z43" s="50">
         <v>0</v>
@@ -7450,22 +7450,22 @@
         <v>0</v>
       </c>
       <c r="AB43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="AC43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="AD43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="AE43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="AF43" s="16" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="AG43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AH43" s="51">
         <v>0</v>
@@ -7477,16 +7477,16 @@
         <v>0</v>
       </c>
       <c r="AK43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AL43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AM43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AN43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AO43" s="51">
         <v>0</v>
@@ -7495,19 +7495,19 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AR43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AS43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AT43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AU43" s="21" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AV43" s="4"/>
       <c r="AW43" s="4"/>
@@ -7519,7 +7519,7 @@
       <c r="BC43" s="5"/>
       <c r="BQ43"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>88</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
@@ -7536,25 +7536,25 @@
         <v>0</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G44" s="48">
         <v>0</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M44" s="48">
         <v>0</v>
@@ -7563,16 +7563,16 @@
         <v>0</v>
       </c>
       <c r="O44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="S44" s="50">
         <v>0</v>
@@ -7581,25 +7581,25 @@
         <v>0</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="V44" s="50">
         <v>0</v>
       </c>
       <c r="W44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="X44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="Y44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="Z44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="AA44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="AB44" s="50">
         <v>0</v>
@@ -7608,16 +7608,16 @@
         <v>0</v>
       </c>
       <c r="AD44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="AE44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="AF44" s="16" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="AG44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH44" s="51">
         <v>0</v>
@@ -7626,25 +7626,25 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK44" s="51">
         <v>0</v>
       </c>
       <c r="AL44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AO44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AP44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AQ44" s="51">
         <v>0</v>
@@ -7653,13 +7653,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AT44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AU44" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AV44" s="4"/>
       <c r="AW44" s="4"/>
@@ -7671,7 +7671,7 @@
       <c r="BC44" s="5"/>
       <c r="BQ44"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>89</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D45" s="48">
         <v>0</v>
@@ -7688,43 +7688,43 @@
         <v>0</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H45" s="48">
         <v>0</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O45" s="48">
         <v>0</v>
       </c>
       <c r="P45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S45" s="50">
         <v>0</v>
@@ -7733,43 +7733,43 @@
         <v>0</v>
       </c>
       <c r="U45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W45" s="50">
         <v>0</v>
       </c>
       <c r="X45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD45" s="50">
         <v>0</v>
       </c>
       <c r="AE45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF45" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AH45" s="51">
         <v>0</v>
@@ -7778,40 +7778,40 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AK45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AL45" s="51">
         <v>0</v>
       </c>
       <c r="AM45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AN45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AO45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AP45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AQ45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AR45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AS45" s="51">
         <v>0</v>
       </c>
       <c r="AT45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AU45" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AV45" s="4"/>
       <c r="AW45" s="4"/>
@@ -7823,7 +7823,7 @@
       <c r="BC45" s="5"/>
       <c r="BQ45"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>90</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D46" s="48">
         <v>0</v>
@@ -7840,43 +7840,43 @@
         <v>0</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I46" s="48">
         <v>0</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P46" s="48">
         <v>0</v>
       </c>
       <c r="Q46" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="S46" s="50">
         <v>0</v>
@@ -7885,43 +7885,43 @@
         <v>0</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="W46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="X46" s="50">
         <v>0</v>
       </c>
       <c r="Y46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="Z46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AA46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AB46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AC46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AD46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AE46" s="50">
         <v>0</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="AG46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AH46" s="51">
         <v>0</v>
@@ -7930,40 +7930,40 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AK46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AL46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AM46" s="51">
         <v>0</v>
       </c>
       <c r="AN46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AO46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AP46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AQ46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AR46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AS46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AT46" s="51">
         <v>0</v>
       </c>
       <c r="AU46" s="21" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AV46" s="4"/>
       <c r="AW46" s="4"/>
@@ -7975,12 +7975,12 @@
       <c r="BC46" s="5"/>
       <c r="BQ46"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D47" s="48">
         <v>0</v>
@@ -7989,37 +7989,37 @@
         <v>0</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J47" s="48">
         <v>0</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q47" s="48">
         <v>0</v>
@@ -8124,7 +8124,7 @@
       <c r="BC47" s="5"/>
       <c r="BQ47"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -8181,7 +8181,7 @@
       <c r="BC48" s="5"/>
       <c r="BQ48"/>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="BC49" s="5"/>
       <c r="BQ49"/>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>91</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="BC50" s="25"/>
       <c r="BQ50"/>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>92</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="CB51" s="28"/>
       <c r="CC51" s="28"/>
     </row>
-    <row r="52" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>150</v>
       </c>
@@ -8824,7 +8824,7 @@
       <c r="BC52" s="5"/>
       <c r="BQ52"/>
     </row>
-    <row r="53" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -8883,7 +8883,7 @@
       <c r="BC53" s="5"/>
       <c r="BQ53"/>
     </row>
-    <row r="54" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -8940,7 +8940,7 @@
       <c r="BC54" s="5"/>
       <c r="BQ54"/>
     </row>
-    <row r="55" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="BC55" s="5"/>
       <c r="BQ55"/>
     </row>
-    <row r="56" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>93</v>
       </c>
@@ -9007,49 +9007,49 @@
         <v>25</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="J56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="K56" s="52" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="L56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="M56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="P56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="Q56" s="31" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="R56" s="15">
         <v>100</v>
@@ -9058,7 +9058,7 @@
         <v>100</v>
       </c>
       <c r="T56" s="55" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="U56" s="15">
         <v>100</v>
@@ -9076,7 +9076,7 @@
         <v>100</v>
       </c>
       <c r="Z56" s="55" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="AA56" s="15">
         <v>100</v>
@@ -9103,7 +9103,7 @@
         <v>147</v>
       </c>
       <c r="AI56" s="56" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="AJ56" s="19">
         <v>147</v>
@@ -9121,7 +9121,7 @@
         <v>147</v>
       </c>
       <c r="AO56" s="56" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="AP56" s="19">
         <v>147</v>
@@ -9151,7 +9151,7 @@
       <c r="BC56" s="5"/>
       <c r="BQ56"/>
     </row>
-    <row r="57" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>94</v>
       </c>
@@ -9159,49 +9159,49 @@
         <v>26</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="E57" s="53" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="G57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="H57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="I57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="J57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="L57" s="53" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="M57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="N57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="O57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="P57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="Q57" s="54" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="R57" s="15">
         <v>100</v>
@@ -9210,7 +9210,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="55" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="U57" s="15">
         <v>100</v>
@@ -9231,7 +9231,7 @@
         <v>100</v>
       </c>
       <c r="AA57" s="55" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="AB57" s="15">
         <v>100</v>
@@ -9255,7 +9255,7 @@
         <v>147</v>
       </c>
       <c r="AI57" s="56" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="AJ57" s="19">
         <v>147</v>
@@ -9276,7 +9276,7 @@
         <v>147</v>
       </c>
       <c r="AP57" s="56" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="AQ57" s="19">
         <v>147</v>
@@ -9303,7 +9303,7 @@
       <c r="BC57" s="5"/>
       <c r="BQ57"/>
     </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>95</v>
       </c>
@@ -9311,49 +9311,49 @@
         <v>27</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="E58" s="53" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="G58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="H58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="I58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="J58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="M58" s="53" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="N58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="O58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="P58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="Q58" s="54" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="R58" s="15">
         <v>180</v>
@@ -9362,7 +9362,7 @@
         <v>180</v>
       </c>
       <c r="T58" s="55" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="U58" s="15">
         <v>180</v>
@@ -9386,7 +9386,7 @@
         <v>180</v>
       </c>
       <c r="AB58" s="55" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="AC58" s="15">
         <v>180</v>
@@ -9407,7 +9407,7 @@
         <v>375</v>
       </c>
       <c r="AI58" s="56" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="AJ58" s="19">
         <v>375</v>
@@ -9431,7 +9431,7 @@
         <v>375</v>
       </c>
       <c r="AQ58" s="56" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="AR58" s="19">
         <v>375</v>
@@ -9455,7 +9455,7 @@
       <c r="BC58" s="5"/>
       <c r="BQ58"/>
     </row>
-    <row r="59" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>96</v>
       </c>
@@ -9463,49 +9463,49 @@
         <v>28</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="F59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="G59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="H59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="I59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="J59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="L59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="M59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="N59" s="53" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="O59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="P59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="Q59" s="54" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="R59" s="15">
         <v>180</v>
@@ -9514,7 +9514,7 @@
         <v>180</v>
       </c>
       <c r="T59" s="55" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="U59" s="15">
         <v>180</v>
@@ -9541,7 +9541,7 @@
         <v>180</v>
       </c>
       <c r="AC59" s="55" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="AD59" s="15">
         <v>180</v>
@@ -9559,7 +9559,7 @@
         <v>375</v>
       </c>
       <c r="AI59" s="56" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="AJ59" s="19">
         <v>375</v>
@@ -9586,7 +9586,7 @@
         <v>375</v>
       </c>
       <c r="AR59" s="56" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="AS59" s="19">
         <v>375</v>
@@ -9607,7 +9607,7 @@
       <c r="BC59" s="5"/>
       <c r="BQ59"/>
     </row>
-    <row r="60" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>97</v>
       </c>
@@ -9615,49 +9615,49 @@
         <v>29</v>
       </c>
       <c r="C60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="F60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="G60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="H60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="I60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="J60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="L60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="N60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="O60" s="53" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="P60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="Q60" s="54" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="R60" s="15">
         <v>240</v>
@@ -9666,7 +9666,7 @@
         <v>240</v>
       </c>
       <c r="T60" s="55" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="U60" s="15">
         <v>240</v>
@@ -9696,7 +9696,7 @@
         <v>240</v>
       </c>
       <c r="AD60" s="55" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="AE60" s="15">
         <v>240</v>
@@ -9711,7 +9711,7 @@
         <v>550</v>
       </c>
       <c r="AI60" s="56" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="AJ60" s="19">
         <v>550</v>
@@ -9741,7 +9741,7 @@
         <v>550</v>
       </c>
       <c r="AS60" s="56" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="AT60" s="19">
         <v>550</v>
@@ -9759,7 +9759,7 @@
       <c r="BC60" s="5"/>
       <c r="BQ60"/>
     </row>
-    <row r="61" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>98</v>
       </c>
@@ -9767,49 +9767,49 @@
         <v>29</v>
       </c>
       <c r="C61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="H61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="I61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="J61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="L61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="M61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="N61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="O61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="P61" s="53" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="Q61" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="R61" s="15">
         <v>240</v>
@@ -9818,7 +9818,7 @@
         <v>240</v>
       </c>
       <c r="T61" s="55" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="U61" s="15">
         <v>240</v>
@@ -9851,7 +9851,7 @@
         <v>240</v>
       </c>
       <c r="AE61" s="55" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="AF61" s="15">
         <v>240</v>
@@ -9863,7 +9863,7 @@
         <v>550</v>
       </c>
       <c r="AI61" s="56" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="AJ61" s="19">
         <v>550</v>
@@ -9896,7 +9896,7 @@
         <v>550</v>
       </c>
       <c r="AT61" s="56" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="AU61" s="19">
         <v>550</v>
@@ -9911,54 +9911,54 @@
       <c r="BC61" s="5"/>
       <c r="BQ61"/>
     </row>
-    <row r="62" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="H62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="I62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="J62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="K62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="M62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="N62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="O62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="P62" s="54" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="Q62" s="53" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="R62" s="15">
         <v>0</v>
@@ -10060,7 +10060,7 @@
       <c r="BC62" s="5"/>
       <c r="BQ62"/>
     </row>
-    <row r="63" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -10117,7 +10117,7 @@
       <c r="BC63" s="5"/>
       <c r="BQ63"/>
     </row>
-    <row r="64" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -10176,7 +10176,7 @@
       <c r="BC64" s="5"/>
       <c r="BQ64"/>
     </row>
-    <row r="65" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>99</v>
       </c>
@@ -10353,7 +10353,7 @@
       <c r="CB65" s="5"/>
       <c r="CC65" s="5"/>
     </row>
-    <row r="66" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -10410,7 +10410,7 @@
       <c r="BC66" s="5"/>
       <c r="BQ66"/>
     </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -10469,7 +10469,7 @@
       <c r="BC67" s="5"/>
       <c r="BQ67"/>
     </row>
-    <row r="68" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -10528,7 +10528,7 @@
       <c r="BC68" s="5"/>
       <c r="BQ68"/>
     </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>100</v>
       </c>
@@ -10536,139 +10536,139 @@
         <v>34</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K69" s="52" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="L69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q69" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T69" s="45" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="U69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z69" s="45" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="AA69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF69" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI69" s="47" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="AJ69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO69" s="47" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="AP69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AQ69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AR69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AS69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AT69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AU69" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AV69" s="4"/>
       <c r="AW69" s="4"/>
@@ -10682,7 +10682,7 @@
       <c r="BK69" s="5"/>
       <c r="BQ69"/>
     </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>101</v>
       </c>
@@ -10690,139 +10690,139 @@
         <v>35</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M70" s="52" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="N70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q70" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T70" s="45" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB70" s="45" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="AC70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AE70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF70" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI70" s="47" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AJ70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AO70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AP70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AQ70" s="47" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AR70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AS70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AT70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AU70" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AV70" s="4"/>
       <c r="AW70" s="4"/>
@@ -10836,7 +10836,7 @@
       <c r="BL70" s="5"/>
       <c r="BQ70"/>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>102</v>
       </c>
@@ -10844,139 +10844,139 @@
         <v>36</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O71" s="52" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="P71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q71" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T71" s="45" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="U71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD71" s="45" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AE71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF71" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI71" s="47" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AJ71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AN71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AO71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AP71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AS71" s="47" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AT71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AU71" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AV71" s="4"/>
       <c r="AW71" s="4"/>
@@ -11003,7 +11003,7 @@
       <c r="BR71" s="5"/>
       <c r="BZ71" s="5"/>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>103</v>
       </c>
@@ -11011,139 +11011,139 @@
         <v>37</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L72" s="52" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="M72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q72" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T72" s="45" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="U72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA72" s="45" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AB72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI72" s="47" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="AJ72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AP72" s="47" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="AQ72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AR72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AS72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AT72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AU72" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AV72" s="4"/>
       <c r="AW72" s="4"/>
@@ -11157,7 +11157,7 @@
       <c r="BN72" s="5"/>
       <c r="BQ72"/>
     </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>104</v>
       </c>
@@ -11165,139 +11165,139 @@
         <v>38</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N73" s="52" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="O73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q73" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T73" s="45" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="U73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC73" s="45" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="AD73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI73" s="47" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="AJ73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AR73" s="47" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="AS73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AT73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AU73" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AV73" s="4"/>
       <c r="AW73" s="4"/>
@@ -11311,7 +11311,7 @@
       <c r="BO73" s="5"/>
       <c r="BQ73"/>
     </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>105</v>
       </c>
@@ -11319,139 +11319,139 @@
         <v>39</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P74" s="52" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="Q74" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T74" s="45" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="U74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE74" s="45" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="AF74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI74" s="47" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="AJ74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AP74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AR74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AS74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AT74" s="47" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="AU74" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV74" s="4"/>
       <c r="AW74" s="4"/>
@@ -11465,54 +11465,54 @@
       <c r="BP74" s="5"/>
       <c r="BQ74"/>
     </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q75" s="52" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="R75" s="15">
         <v>0</v>
@@ -11614,7 +11614,7 @@
       <c r="BC75" s="5"/>
       <c r="BQ75"/>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -11671,7 +11671,7 @@
       <c r="BC76" s="5"/>
       <c r="BQ76"/>
     </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -11728,7 +11728,7 @@
       <c r="BC77" s="5"/>
       <c r="BQ77"/>
     </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -11787,7 +11787,7 @@
       <c r="BC78" s="5"/>
       <c r="BQ78"/>
     </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -11846,7 +11846,7 @@
       <c r="BC79" s="5"/>
       <c r="BQ79"/>
     </row>
-    <row r="80" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>106</v>
       </c>
@@ -12011,7 +12011,7 @@
       <c r="BP80" s="5"/>
       <c r="BQ80"/>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>107</v>
       </c>
@@ -12174,7 +12174,7 @@
       <c r="BP81" s="5"/>
       <c r="BQ81"/>
     </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -12231,7 +12231,7 @@
       <c r="BC82" s="5"/>
       <c r="BQ82"/>
     </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -12290,144 +12290,144 @@
       <c r="BC83" s="5"/>
       <c r="BQ83"/>
     </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q84" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AE84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF84" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AJ84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AN84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AO84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AP84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AQ84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AR84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AT84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AU84" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AV84" s="4"/>
       <c r="AW84" s="4"/>
@@ -12452,7 +12452,7 @@
       <c r="BP84" s="5"/>
       <c r="BQ84"/>
     </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -12509,7 +12509,7 @@
       <c r="BC85" s="5"/>
       <c r="BQ85"/>
     </row>
-    <row r="86" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -12568,7 +12568,7 @@
       <c r="BC86" s="5"/>
       <c r="BQ86"/>
     </row>
-    <row r="87" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>109</v>
       </c>
@@ -12576,139 +12576,139 @@
         <v>45</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AJ87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AQ87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AR87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AU87" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AV87" s="4"/>
       <c r="AW87" s="4"/>
@@ -12720,7 +12720,7 @@
       <c r="BC87" s="5"/>
       <c r="BQ87"/>
     </row>
-    <row r="88" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>110</v>
       </c>
@@ -12728,139 +12728,139 @@
         <v>46</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AP88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AQ88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AS88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU88" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV88" s="4"/>
       <c r="AW88" s="4"/>
@@ -12872,7 +12872,7 @@
       <c r="BC88" s="5"/>
       <c r="BQ88"/>
     </row>
-    <row r="89" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>111</v>
       </c>
@@ -12880,139 +12880,139 @@
         <v>47</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AO89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AP89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AQ89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AR89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AU89" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AV89" s="4"/>
       <c r="AW89" s="4"/>
@@ -13024,7 +13024,7 @@
       <c r="BC89" s="5"/>
       <c r="BQ89"/>
     </row>
-    <row r="90" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -13081,7 +13081,7 @@
       <c r="BC90" s="5"/>
       <c r="BQ90"/>
     </row>
-    <row r="91" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -13140,7 +13140,7 @@
       <c r="BC91" s="5"/>
       <c r="BQ91"/>
     </row>
-    <row r="92" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>112</v>
       </c>
@@ -13290,7 +13290,7 @@
       <c r="BC92" s="5"/>
       <c r="BQ92"/>
     </row>
-    <row r="93" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -13349,7 +13349,7 @@
       <c r="BC93" s="5"/>
       <c r="BQ93"/>
     </row>
-    <row r="94" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -13408,7 +13408,7 @@
       <c r="BC94" s="5"/>
       <c r="BQ94"/>
     </row>
-    <row r="95" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>113</v>
       </c>
@@ -13585,7 +13585,7 @@
       <c r="CB95" s="27"/>
       <c r="CC95" s="27"/>
     </row>
-    <row r="96" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>114</v>
       </c>
@@ -13762,7 +13762,7 @@
       <c r="CB96" s="27"/>
       <c r="CC96" s="27"/>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>115</v>
       </c>
@@ -13939,7 +13939,7 @@
       <c r="CB97" s="27"/>
       <c r="CC97" s="27"/>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>116</v>
       </c>
@@ -14116,7 +14116,7 @@
       <c r="CB98" s="27"/>
       <c r="CC98" s="27"/>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>117</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="CB99" s="27"/>
       <c r="CC99" s="27"/>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>118</v>
       </c>
@@ -14470,7 +14470,7 @@
       <c r="CB100" s="27"/>
       <c r="CC100" s="27"/>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>147</v>
       </c>
@@ -14645,7 +14645,7 @@
       <c r="CB101" s="27"/>
       <c r="CC101" s="27"/>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -14715,7 +14715,7 @@
       <c r="BP102" s="5"/>
       <c r="BQ102"/>
     </row>
-    <row r="103" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -14774,7 +14774,7 @@
       <c r="BC103" s="5"/>
       <c r="BQ103"/>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>55</v>
       </c>
@@ -14833,7 +14833,7 @@
       <c r="BC104" s="5"/>
       <c r="BQ104"/>
     </row>
-    <row r="105" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>119</v>
       </c>
@@ -15008,7 +15008,7 @@
       <c r="CB105" s="5"/>
       <c r="CC105" s="5"/>
     </row>
-    <row r="106" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="C106"/>
       <c r="D106"/>
@@ -15065,7 +15065,7 @@
       <c r="BC106" s="5"/>
       <c r="BQ106"/>
     </row>
-    <row r="107" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>56</v>
       </c>
@@ -15124,7 +15124,7 @@
       <c r="BC107" s="5"/>
       <c r="BQ107"/>
     </row>
-    <row r="108" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -15183,7 +15183,7 @@
       <c r="BC108" s="5"/>
       <c r="BQ108"/>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>120</v>
       </c>
@@ -15358,7 +15358,7 @@
       <c r="CB109" s="5"/>
       <c r="CC109" s="5"/>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="C110"/>
       <c r="D110"/>
@@ -15415,7 +15415,7 @@
       <c r="BC110" s="5"/>
       <c r="BQ110"/>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>57</v>
       </c>
@@ -15474,7 +15474,7 @@
       <c r="BC111" s="5"/>
       <c r="BQ111"/>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>121</v>
       </c>
@@ -15626,7 +15626,7 @@
       <c r="BC112" s="5"/>
       <c r="BQ112"/>
     </row>
-    <row r="113" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -15683,7 +15683,7 @@
       <c r="BC113" s="5"/>
       <c r="BQ113"/>
     </row>
-    <row r="114" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -15742,7 +15742,7 @@
       <c r="BC114" s="5"/>
       <c r="BQ114"/>
     </row>
-    <row r="115" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -15801,7 +15801,7 @@
       <c r="BC115" s="5"/>
       <c r="BQ115"/>
     </row>
-    <row r="116" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -15860,7 +15860,7 @@
       <c r="BC116" s="5"/>
       <c r="BQ116"/>
     </row>
-    <row r="117" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>122</v>
       </c>
@@ -16012,7 +16012,7 @@
       <c r="BC117" s="5"/>
       <c r="BQ117"/>
     </row>
-    <row r="118" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -16069,7 +16069,7 @@
       <c r="BC118" s="5"/>
       <c r="BQ118"/>
     </row>
-    <row r="119" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>63</v>
       </c>
@@ -16128,7 +16128,7 @@
       <c r="BC119" s="5"/>
       <c r="BQ119"/>
     </row>
-    <row r="120" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>64</v>
       </c>
@@ -16187,7 +16187,7 @@
       <c r="BC120" s="5"/>
       <c r="BQ120"/>
     </row>
-    <row r="121" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -16246,9 +16246,9 @@
       <c r="BC121" s="5"/>
       <c r="BQ121"/>
     </row>
-    <row r="122" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="31" t="s">
@@ -16421,7 +16421,7 @@
       <c r="CB122" s="5"/>
       <c r="CC122" s="5"/>
     </row>
-    <row r="123" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>123</v>
       </c>
@@ -16574,7 +16574,7 @@
       <c r="BF123" s="5"/>
       <c r="BQ123"/>
     </row>
-    <row r="124" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>148</v>
       </c>
@@ -16727,7 +16727,7 @@
       <c r="BF124" s="5"/>
       <c r="BQ124"/>
     </row>
-    <row r="125" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>149</v>
       </c>
@@ -16877,7 +16877,7 @@
       <c r="BC125" s="5"/>
       <c r="BQ125"/>
     </row>
-    <row r="126" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -16934,7 +16934,7 @@
       <c r="BC126" s="5"/>
       <c r="BQ126"/>
     </row>
-    <row r="127" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>66</v>
       </c>
@@ -16993,7 +16993,7 @@
       <c r="BC127" s="5"/>
       <c r="BQ127"/>
     </row>
-    <row r="128" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>64</v>
       </c>
@@ -17052,7 +17052,7 @@
       <c r="BC128" s="5"/>
       <c r="BQ128"/>
     </row>
-    <row r="129" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>67</v>
       </c>
@@ -17111,7 +17111,7 @@
       <c r="BC129" s="5"/>
       <c r="BQ129"/>
     </row>
-    <row r="130" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>68</v>
       </c>
@@ -17170,9 +17170,9 @@
       <c r="BC130" s="5"/>
       <c r="BQ130"/>
     </row>
-    <row r="131" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>69</v>
@@ -17317,9 +17317,9 @@
       <c r="BE131" s="5"/>
       <c r="BQ131"/>
     </row>
-    <row r="132" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="31" t="s">
@@ -17467,7 +17467,7 @@
       <c r="BC132" s="5"/>
       <c r="BQ132"/>
     </row>
-    <row r="133" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -17524,7 +17524,7 @@
       <c r="BC133" s="5"/>
       <c r="BQ133"/>
     </row>
-    <row r="134" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -17583,7 +17583,7 @@
       <c r="BC134" s="5"/>
       <c r="BQ134"/>
     </row>
-    <row r="135" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>71</v>
       </c>
@@ -17642,7 +17642,7 @@
       <c r="BC135" s="5"/>
       <c r="BQ135"/>
     </row>
-    <row r="136" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>124</v>
       </c>
@@ -17812,9 +17812,9 @@
       <c r="BW136" s="5"/>
       <c r="BX136" s="5"/>
     </row>
-    <row r="137" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="31">
@@ -17962,7 +17962,7 @@
       <c r="BC137" s="5"/>
       <c r="BQ137"/>
     </row>
-    <row r="138" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="C138"/>
       <c r="D138"/>
@@ -18019,7 +18019,7 @@
       <c r="BC138" s="5"/>
       <c r="BQ138"/>
     </row>
-    <row r="139" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="C139"/>
       <c r="D139"/>
@@ -18068,7 +18068,7 @@
       <c r="AU139"/>
       <c r="BQ139"/>
     </row>
-    <row r="140" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="C140"/>
       <c r="D140"/>
@@ -18117,7 +18117,7 @@
       <c r="AU140"/>
       <c r="BQ140"/>
     </row>
-    <row r="141" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="C141"/>
       <c r="D141"/>
@@ -18166,7 +18166,7 @@
       <c r="AU141"/>
       <c r="BQ141"/>
     </row>
-    <row r="142" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="C142"/>
       <c r="D142"/>
@@ -18215,7 +18215,7 @@
       <c r="AU142"/>
       <c r="BQ142"/>
     </row>
-    <row r="143" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="C143"/>
       <c r="D143"/>
@@ -18264,7 +18264,7 @@
       <c r="AU143"/>
       <c r="BQ143"/>
     </row>
-    <row r="144" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="C144"/>
       <c r="D144"/>
@@ -18313,21 +18313,21 @@
       <c r="AU144"/>
       <c r="BQ144"/>
     </row>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18344,39 +18344,39 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>134</v>
       </c>
